--- a/Sufficient data/forecast_summary_B07T6N8N56.xlsx
+++ b/Sufficient data/forecast_summary_B07T6N8N56.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B07T6N8N56.xlsx
+++ b/Sufficient data/forecast_summary_B07T6N8N56.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -974,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1094,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
